--- a/dtj/dtj-report/tml/ПО-4.xlsx
+++ b/dtj/dtj-report/tml/ПО-4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jc-2\backend-jc\dtj\dtj-report\tml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\dtj\dtj-report\tml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'+ - к прошлому году'!$A$1:$J$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ПЧ!$A$1:$J$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ПЧ-38 16г '!$A$1:$J$90</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="114">
   <si>
     <t xml:space="preserve"> Статистическая отчетность</t>
   </si>
@@ -293,15 +292,6 @@
     <t>Всего  рельсов  снято с приемо-отправочных путей 1 шт.</t>
   </si>
   <si>
-    <t xml:space="preserve">              Начальник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             дистанции пути</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. В учет принимаются все рельсы, снятые с путей вследствии изломов и  </t>
-  </si>
-  <si>
     <t xml:space="preserve">за 2024 год по дистанции пути </t>
   </si>
   <si>
@@ -387,13 +377,37 @@
   </si>
   <si>
     <t>Задачи</t>
+  </si>
+  <si>
+    <t>Начальник</t>
+  </si>
+  <si>
+    <t>дистанции пути</t>
+  </si>
+  <si>
+    <t>Примечание:</t>
+  </si>
+  <si>
+    <t>1. В учет принимаются все рельсы, снятые с путей вследствии изломов и</t>
+  </si>
+  <si>
+    <t>ОТЧЕТ</t>
+  </si>
+  <si>
+    <t>Снято с главных путей</t>
+  </si>
+  <si>
+    <t>в том числе по типам</t>
+  </si>
+  <si>
+    <t>типы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -478,6 +492,19 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -499,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -706,11 +733,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -783,61 +862,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -848,35 +877,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -905,19 +951,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1368,14 +1416,14 @@
       <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="102" t="s">
+      <c r="F17" s="75"/>
+      <c r="G17" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="103"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="39" t="s">
         <v>18</v>
       </c>
@@ -2250,7 +2298,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="76" t="s">
         <v>47</v>
       </c>
       <c r="B58" t="s">
@@ -2269,7 +2317,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="105"/>
+      <c r="A59" s="77"/>
       <c r="B59" t="s">
         <v>49</v>
       </c>
@@ -2401,14 +2449,14 @@
       <c r="D66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="102" t="s">
+      <c r="E66" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="103"/>
-      <c r="G66" s="102" t="s">
+      <c r="F66" s="75"/>
+      <c r="G66" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="103"/>
+      <c r="H66" s="75"/>
       <c r="I66" s="30" t="s">
         <v>18</v>
       </c>
@@ -2686,29 +2734,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="106" t="s">
+    <row r="84" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="H86" s="100" t="s">
+      <c r="H86" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="I86" s="100"/>
-      <c r="J86" s="100"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="101" t="s">
+      <c r="A89" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="101"/>
+      <c r="B89" s="73"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -2735,21 +2783,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml>
-</file>
-
-<file path=xl/worksheets/sheet17.xml>
-</file>
-
-<file path=xl/worksheets/sheet18.xml>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2767,12 +2806,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H1" s="43" t="s">
+      <c r="J1" s="71" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I2" s="43" t="s">
+      <c r="J2" s="71" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2786,40 +2825,46 @@
       <c r="J4" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="A6" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
+      <c r="A8" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="44"/>
@@ -2830,1227 +2875,1227 @@
       <c r="H9" s="45"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I10" s="43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="56"/>
+      <c r="B15" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="58">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58">
+        <v>2</v>
+      </c>
+      <c r="F15" s="58">
+        <v>3</v>
+      </c>
+      <c r="G15" s="58">
+        <v>4</v>
+      </c>
+      <c r="H15" s="58">
+        <v>5</v>
+      </c>
+      <c r="I15" s="58">
+        <v>6</v>
+      </c>
+      <c r="J15" s="58">
         <v>7</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="59" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="57">
         <v>10</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="55" t="s">
+      <c r="D16" s="61">
+        <f>SUM(E16:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="57">
         <v>11</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="D17" s="61">
+        <f t="shared" ref="D17:D21" si="0">SUM(E17:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="D18" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="57">
         <v>13</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="D19" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57">
         <v>14</v>
       </c>
-      <c r="D13" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="61" t="s">
+      <c r="D20" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57">
         <v>18</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="65" t="s">
+      <c r="D21" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56"/>
+      <c r="B22" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="63">
+        <f t="shared" ref="D22:J22" si="1">SUM(D16:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="57">
         <v>20</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="D23" s="61">
+        <f>SUM(E23:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="57">
         <v>21</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="69" t="s">
+      <c r="D24" s="61">
+        <f t="shared" ref="D24:D28" si="2">SUM(E24:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57">
         <v>24</v>
       </c>
-      <c r="D15" s="69">
-        <v>1</v>
-      </c>
-      <c r="E15" s="69">
-        <v>2</v>
-      </c>
-      <c r="F15" s="69">
-        <v>3</v>
-      </c>
-      <c r="G15" s="69">
-        <v>4</v>
-      </c>
-      <c r="H15" s="69">
-        <v>5</v>
-      </c>
-      <c r="I15" s="70">
-        <v>6</v>
-      </c>
-      <c r="J15" s="69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="D25" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57">
         <v>25</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="D26" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57">
         <v>26</v>
       </c>
-      <c r="C16" s="65">
-        <v>10</v>
-      </c>
-      <c r="D16" s="83">
-        <f>SUM(E16:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="86"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58" t="s">
+      <c r="D27" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57">
         <v>27</v>
       </c>
-      <c r="C17" s="65">
-        <v>11</v>
-      </c>
-      <c r="D17" s="83">
-        <f t="shared" ref="D17:D21" si="0">SUM(E17:J17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="85"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="65">
-        <v>12</v>
-      </c>
-      <c r="D18" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="65">
-        <v>13</v>
-      </c>
-      <c r="D19" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="85"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="65">
-        <v>14</v>
-      </c>
-      <c r="D20" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="65">
-        <v>18</v>
-      </c>
-      <c r="D21" s="83">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="85"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="72" t="s">
+      <c r="D28" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="56"/>
+      <c r="B29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="84">
-        <f>SUM(D16:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="49">
-        <f>SUM(E16:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="49">
-        <f t="shared" ref="F22:J22" si="1">SUM(F16:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="54">
-        <v>20</v>
-      </c>
-      <c r="D23" s="83">
-        <f>SUM(E23:J23)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="95"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="65">
-        <v>21</v>
-      </c>
-      <c r="D24" s="83">
-        <f t="shared" ref="D24:D28" si="2">SUM(E24:J24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="88"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="59">
-        <v>24</v>
-      </c>
-      <c r="D25" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="90"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="65">
-        <v>25</v>
-      </c>
-      <c r="D26" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="85"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="65">
-        <v>26</v>
-      </c>
-      <c r="D27" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="85"/>
-    </row>
-    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="64">
-        <v>27</v>
-      </c>
-      <c r="D28" s="83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="92"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="74" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="66">
+        <f>SUM(D23:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="67">
+        <f t="shared" ref="E29:J29" si="3">SUM(E23:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="61">
+        <f>SUM(E30:J30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="61">
+        <f t="shared" ref="D31:D32" si="4">SUM(E31:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="57">
+        <v>38</v>
+      </c>
+      <c r="D32" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
+      <c r="B33" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="84">
-        <f>SUM(D23:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="49">
-        <f t="shared" ref="E29:J29" si="3">SUM(E23:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="83">
-        <f>SUM(E30:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="86"/>
-    </row>
-    <row r="31" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="83">
-        <f t="shared" ref="D31:D32" si="4">SUM(E31:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="85"/>
-    </row>
-    <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="65">
-        <v>38</v>
-      </c>
-      <c r="D32" s="83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="92"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="72" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="66">
+        <f>SUM(D30:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="67">
+        <f t="shared" ref="E33:J33" si="5">SUM(E30:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="57">
+        <v>40</v>
+      </c>
+      <c r="D34" s="61">
+        <f>SUM(E34:J34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="57">
+        <v>41</v>
+      </c>
+      <c r="D35" s="61">
+        <f t="shared" ref="D35:D40" si="6">SUM(E35:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57">
+        <v>43</v>
+      </c>
+      <c r="D36" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="57">
+        <v>44</v>
+      </c>
+      <c r="D37" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57">
+        <v>46</v>
+      </c>
+      <c r="D38" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57">
+        <v>47</v>
+      </c>
+      <c r="D39" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57">
+        <v>49</v>
+      </c>
+      <c r="D40" s="61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="56"/>
+      <c r="B41" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="83">
-        <f>SUM(D30:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="46">
-        <f t="shared" ref="E33:J33" si="5">SUM(E30:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="65">
-        <v>40</v>
-      </c>
-      <c r="D34" s="83">
-        <f>SUM(E34:J34)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="86"/>
-    </row>
-    <row r="35" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="65">
-        <v>41</v>
-      </c>
-      <c r="D35" s="83">
-        <f t="shared" ref="D35:D40" si="6">SUM(E35:J35)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="85"/>
-    </row>
-    <row r="36" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="65">
+      <c r="C41" s="56"/>
+      <c r="D41" s="66">
+        <f>SUM(D34:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="67">
+        <f t="shared" ref="E41:J41" si="7">SUM(E34:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="90"/>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="65">
+      <c r="C42" s="57">
+        <v>50</v>
+      </c>
+      <c r="D42" s="61">
+        <f>SUM(E42:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="85"/>
-    </row>
-    <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="65">
+      <c r="C43" s="57">
+        <v>52</v>
+      </c>
+      <c r="D43" s="61">
+        <f t="shared" ref="D43:D46" si="8">SUM(E43:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="57">
+        <v>53</v>
+      </c>
+      <c r="D44" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57">
+        <v>55</v>
+      </c>
+      <c r="D45" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57">
+        <v>56</v>
+      </c>
+      <c r="D46" s="61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="57">
+        <v>59</v>
+      </c>
+      <c r="D47" s="61">
+        <f>SUM(E47:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="56"/>
+      <c r="B48" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="66">
+        <f>SUM(D42:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="67">
+        <f t="shared" ref="E48:J48" si="9">SUM(E42:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="57">
+        <v>60</v>
+      </c>
+      <c r="D49" s="61">
+        <f>SUM(E49:J49)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="65">
+      <c r="C50" s="57">
+        <v>62</v>
+      </c>
+      <c r="D50" s="61">
+        <f t="shared" ref="D50:D52" si="10">SUM(E50:J50)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57">
+        <v>65</v>
+      </c>
+      <c r="D51" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="57">
+        <v>66</v>
+      </c>
+      <c r="D52" s="61">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="57">
+        <v>69</v>
+      </c>
+      <c r="D53" s="61">
+        <f>SUM(E53:J53)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="56"/>
+      <c r="B54" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="66">
+        <f>SUM(D49:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="67">
+        <f t="shared" ref="E54:J54" si="11">SUM(E49:E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="85"/>
-    </row>
-    <row r="40" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="59">
+      <c r="B55" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="57">
+        <v>70</v>
+      </c>
+      <c r="D55" s="61">
+        <f>SUM(E55:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="84"/>
+      <c r="B56" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="90"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="72" t="s">
+      <c r="C56" s="57">
+        <v>74</v>
+      </c>
+      <c r="D56" s="61">
+        <f>SUM(E56:J56)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57">
+        <v>79</v>
+      </c>
+      <c r="D57" s="61">
+        <f>SUM(E57:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="56"/>
+      <c r="B58" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="84">
-        <f>SUM(D34:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="49">
-        <f t="shared" ref="E41:J41" si="7">SUM(E34:E40)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="65">
+      <c r="C58" s="56"/>
+      <c r="D58" s="66">
+        <f>SUM(D55:D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="67">
+        <f t="shared" ref="E58:J58" si="12">SUM(E55:E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="83">
-        <f>SUM(E42:J42)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="85"/>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="65">
+      <c r="B59" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="57">
+        <v>85</v>
+      </c>
+      <c r="D59" s="61">
+        <f>SUM(E59:J59)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="56"/>
+      <c r="B60" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="83">
-        <f t="shared" ref="D43:D46" si="8">SUM(E43:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="86"/>
-    </row>
-    <row r="44" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="65">
+      <c r="C60" s="57">
+        <v>86</v>
+      </c>
+      <c r="D60" s="61">
+        <f>SUM(E60:J60)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="56"/>
+      <c r="B61" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="56"/>
+      <c r="D61" s="66">
+        <f>D59+D60</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="67">
+        <f t="shared" ref="E61:J61" si="13">E59+E60</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="98"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="85"/>
-    </row>
-    <row r="45" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="65">
+      <c r="B62" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="61">
+        <f>SUM(E62:J62)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="56"/>
+      <c r="B63" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="85"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="90"/>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="65">
+      <c r="C63" s="57">
+        <v>99</v>
+      </c>
+      <c r="D63" s="61">
+        <f>SUM(E63:J63)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="56"/>
+      <c r="B64" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="66">
+        <f>D62+D63</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="67">
+        <f t="shared" ref="E64:J64" si="14">E62+E63</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="67">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="68"/>
+      <c r="B65" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="85"/>
-    </row>
-    <row r="47" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="64">
-        <v>59</v>
-      </c>
-      <c r="D47" s="83">
-        <f>SUM(E47:J47)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="79"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="92"/>
-    </row>
-    <row r="48" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="83">
-        <f>SUM(D42:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="48">
-        <f t="shared" ref="E48:J48" si="9">SUM(E42:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="54">
-        <v>60</v>
-      </c>
-      <c r="D49" s="83">
-        <f>SUM(E49:J49)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="86"/>
-    </row>
-    <row r="50" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="65">
-        <v>62</v>
-      </c>
-      <c r="D50" s="83">
-        <f t="shared" ref="D50:D52" si="10">SUM(E50:J50)</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="85"/>
-    </row>
-    <row r="51" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="59">
-        <v>65</v>
-      </c>
-      <c r="D51" s="83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="90"/>
-    </row>
-    <row r="52" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="65">
-        <v>66</v>
-      </c>
-      <c r="D52" s="83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="85"/>
-    </row>
-    <row r="53" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="64">
-        <v>69</v>
-      </c>
-      <c r="D53" s="83">
-        <f>SUM(E53:J53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="92"/>
-    </row>
-    <row r="54" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="83">
-        <f>SUM(D49:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="48">
-        <f t="shared" ref="E54:J54" si="11">SUM(E49:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="54">
-        <v>70</v>
-      </c>
-      <c r="D55" s="83">
-        <f>SUM(E55:J55)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="86"/>
-    </row>
-    <row r="56" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
-      <c r="B56" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="65">
-        <v>74</v>
-      </c>
-      <c r="D56" s="83">
-        <f>SUM(E56:J56)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="85"/>
-    </row>
-    <row r="57" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="59">
-        <v>79</v>
-      </c>
-      <c r="D57" s="83">
-        <f>SUM(E57:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="90"/>
-    </row>
-    <row r="58" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="83">
-        <f>SUM(D55:D57)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="48">
-        <f t="shared" ref="E58:J58" si="12">SUM(E55:E57)</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="64">
-        <v>85</v>
-      </c>
-      <c r="D59" s="83">
-        <f>SUM(E59:J59)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="79"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="92"/>
-    </row>
-    <row r="60" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="65">
-        <v>86</v>
-      </c>
-      <c r="D60" s="83">
-        <f>SUM(E60:J60)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="92"/>
-    </row>
-    <row r="61" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="83">
-        <f>D59+D60</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="48">
-        <f t="shared" ref="E61:J61" si="13">E59+E60</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="83">
-        <f>SUM(E62:J62)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="79"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-    </row>
-    <row r="63" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="64">
-        <v>99</v>
-      </c>
-      <c r="D63" s="83">
-        <f>SUM(E63:J63)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-    </row>
-    <row r="64" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="83">
-        <f>D62+D63</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="48">
-        <f t="shared" ref="E64:J64" si="14">E62+E63</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="48">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="47">
+      <c r="C65" s="68"/>
+      <c r="D65" s="70">
         <f>D22+D29+D33+D41+D48+D54+D58+D61+D64</f>
         <v>0</v>
       </c>
-      <c r="E65" s="47">
+      <c r="E65" s="70">
         <f t="shared" ref="E65:J65" si="15">E22+E29+E33+E41+E48+E54+E58+E61+E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F65" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G65" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H65" s="47">
+      <c r="H65" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I65" s="47">
+      <c r="I65" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J65" s="47">
+      <c r="J65" s="70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="79" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B69" s="43" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C70" s="43" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -4058,47 +4103,48 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:10" s="52" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="H75" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="I75" s="108"/>
-      <c r="J75" s="108"/>
+    <row r="73" spans="1:10" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="47"/>
+      <c r="B74" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="47"/>
+      <c r="H74" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="109"/>
-      <c r="B78" s="109"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="50"/>
+      <c r="B78" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="A77:B77"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A73:XFD74"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="E12:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="76" max="9" man="1"/>
+    <brk id="75" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -4114,85 +4160,85 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="80" customWidth="1"/>
-    <col min="5" max="5" width="32" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="32" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="80" t="s">
-        <v>85</v>
+      <c r="C2" s="50" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>95</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="E9" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="81" t="s">
+      <c r="F9" s="51" t="s">
         <v>96</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4200,7 +4246,7 @@
         <v>3377</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4208,7 +4254,7 @@
         <v>3378</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4216,7 +4262,7 @@
         <v>3379</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4224,7 +4270,7 @@
         <v>3380</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4232,7 +4278,7 @@
         <v>3381</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4240,7 +4286,7 @@
         <v>3382</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4400,14 +4446,14 @@
       <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="102" t="s">
+      <c r="F17" s="75"/>
+      <c r="G17" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="103"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="13" t="s">
         <v>18</v>
       </c>
@@ -5824,7 +5870,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="76" t="s">
         <v>47</v>
       </c>
       <c r="B58" t="s">
@@ -5863,7 +5909,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="105"/>
+      <c r="A59" s="77"/>
       <c r="B59" t="s">
         <v>49</v>
       </c>
@@ -6051,14 +6097,14 @@
       <c r="D66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="102" t="s">
+      <c r="E66" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="103"/>
-      <c r="G66" s="102" t="s">
+      <c r="F66" s="75"/>
+      <c r="G66" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="103"/>
+      <c r="H66" s="75"/>
       <c r="I66" s="30" t="s">
         <v>18</v>
       </c>

--- a/dtj/dtj-report/tml/ПО-4.xlsx
+++ b/dtj/dtj-report/tml/ПО-4.xlsx
@@ -169,9 +169,6 @@
     <t>Всего рельсов снято с приемо-отправочных путей</t>
   </si>
   <si>
-    <t>10 шт</t>
-  </si>
-  <si>
     <t>Примечание:</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>тел. 93-41-34</t>
+  </si>
+  <si>
+    <t>шт.</t>
   </si>
 </sst>
 </file>
@@ -245,18 +245,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -296,7 +290,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -647,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -681,31 +675,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
@@ -722,1156 +716,1156 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>3</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>5</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>6</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <f>SUM(E14:J14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="11">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="10">
         <v>11</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f t="shared" ref="D15:D19" si="0">SUM(E15:J15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="11">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="11">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="11">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="10">
         <v>14</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="11">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="10">
         <v>18</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="16">
+      <c r="C20" s="11"/>
+      <c r="D20" s="15">
         <f>SUM(D14:D19)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f>SUM(E14:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" ref="F20:J20" si="1">SUM(F14:F19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <f>SUM(E21:J21)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="11">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="10">
         <v>21</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <f t="shared" ref="D22:D26" si="2">SUM(E22:J22)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="11">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="10">
         <v>24</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="11">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="10">
         <v>25</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="11">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="10">
         <v>26</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="11">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="10">
         <v>27</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="16">
+      <c r="C27" s="11"/>
+      <c r="D27" s="15">
         <f>SUM(D21:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <f t="shared" ref="E27:J27" si="3">SUM(E21:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <f>SUM(E28:J28)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <f t="shared" ref="D29:D30" si="4">SUM(E29:J29)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="11">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="10">
         <v>38</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14">
+      <c r="C31" s="11"/>
+      <c r="D31" s="13">
         <f>SUM(D28:D30)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f t="shared" ref="E31:J31" si="5">SUM(E28:E30)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>40</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <f>SUM(E32:J32)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="11">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="10">
         <v>41</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <f t="shared" ref="D33:D38" si="6">SUM(E33:J33)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="11">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10">
         <v>43</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="11">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="10">
         <v>44</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="11">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="10">
         <v>46</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="11">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="10">
         <v>47</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="11">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="10">
         <v>49</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="16">
+      <c r="C39" s="11"/>
+      <c r="D39" s="15">
         <f>SUM(D32:D38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <f t="shared" ref="E39:J39" si="7">SUM(E32:E38)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>50</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <f>SUM(E40:J40)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="11">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="10">
         <v>52</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <f t="shared" ref="D41:D44" si="8">SUM(E41:J41)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="11">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="10">
         <v>53</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="11">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="10">
         <v>55</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="11">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="10">
         <v>56</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="11">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="10">
         <v>59</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <f>SUM(E45:J45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14">
+      <c r="C46" s="11"/>
+      <c r="D46" s="13">
         <f>SUM(D40:D45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" ref="E46:J46" si="9">SUM(E40:E45)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>60</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <f>SUM(E47:J47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="11">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="10">
         <v>62</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <f t="shared" ref="D48:D50" si="10">SUM(E48:J48)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="11">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="10">
         <v>65</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="11">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="10">
         <v>66</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="11">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="10">
         <v>69</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <f>SUM(E51:J51)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="14">
+      <c r="C52" s="11"/>
+      <c r="D52" s="13">
         <f>SUM(D47:D51)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <f t="shared" ref="E52:J52" si="11">SUM(E47:E51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>70</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <f>SUM(E53:J53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="11">
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="10">
         <v>74</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <f>SUM(E54:J54)</f>
         <v>0</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="11">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="10">
         <v>79</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <f>SUM(E55:J55)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="14">
+      <c r="C56" s="11"/>
+      <c r="D56" s="13">
         <f>SUM(D53:D55)</f>
         <v>0</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <f t="shared" ref="E56:J56" si="12">SUM(E53:E55)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>85</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <f>SUM(E57:J57)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="11">
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="10">
         <v>86</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <f>SUM(E58:J58)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="14">
+      <c r="C59" s="11"/>
+      <c r="D59" s="13">
         <f>D57+D58</f>
         <v>0</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <f t="shared" ref="E59:J59" si="13">E57+E58</f>
         <v>0</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>99</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <f>SUM(E60:J60)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="14">
+      <c r="C61" s="11"/>
+      <c r="D61" s="13">
         <f t="shared" ref="D61:J61" si="14">D60</f>
         <v>0</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="15">
+      <c r="C62" s="11"/>
+      <c r="D62" s="14">
         <f t="shared" ref="D62:J62" si="15">D20+D27+D31+D39+D46+D52+D56+D59+D61</f>
         <v>0</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -1880,58 +1874,72 @@
       <c r="C64" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="5"/>
+      <c r="J64" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:10" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="I69" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I69" s="7" t="s">
+    </row>
+    <row r="70" spans="1:10" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="10"/>
+      <c r="B75" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A21:A27"/>
@@ -1948,19 +1956,6 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/dtj/dtj-report/tml/ПО-4.xlsx
+++ b/dtj/dtj-report/tml/ПО-4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jc-2\backend-jc\dtj\dtj-report\tml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\dtj\dtj-report\tml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -316,6 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,7 +335,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -675,31 +675,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
@@ -716,66 +716,66 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="10" t="s">
         <v>16</v>
       </c>
@@ -788,8 +788,8 @@
       <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -822,10 +822,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="10">
@@ -843,8 +843,8 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="10">
         <v>11</v>
       </c>
@@ -860,8 +860,8 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="10">
         <v>12</v>
       </c>
@@ -877,8 +877,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="10">
         <v>13</v>
       </c>
@@ -894,8 +894,8 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="10">
         <v>14</v>
       </c>
@@ -911,8 +911,8 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="10">
         <v>18</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
@@ -963,10 +963,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="10">
@@ -984,8 +984,8 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="10">
         <v>21</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="10">
         <v>24</v>
       </c>
@@ -1018,8 +1018,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="10">
         <v>25</v>
       </c>
@@ -1035,8 +1035,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10">
         <v>26</v>
       </c>
@@ -1052,8 +1052,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="10">
         <v>27</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
@@ -1104,10 +1104,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -1125,8 +1125,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1142,8 +1142,8 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="10">
         <v>38</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
@@ -1194,10 +1194,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="10">
@@ -1215,8 +1215,8 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="10">
         <v>41</v>
       </c>
@@ -1232,8 +1232,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="10">
         <v>43</v>
       </c>
@@ -1249,8 +1249,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="10">
         <v>44</v>
       </c>
@@ -1266,8 +1266,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="10">
         <v>46</v>
       </c>
@@ -1283,8 +1283,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="10">
         <v>47</v>
       </c>
@@ -1300,8 +1300,8 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="10">
         <v>49</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="14" t="s">
         <v>22</v>
       </c>
@@ -1352,10 +1352,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="10">
@@ -1373,8 +1373,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="10">
         <v>52</v>
       </c>
@@ -1390,8 +1390,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="10">
         <v>53</v>
       </c>
@@ -1407,8 +1407,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="10">
         <v>55</v>
       </c>
@@ -1424,8 +1424,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="10">
         <v>56</v>
       </c>
@@ -1441,8 +1441,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="10">
         <v>59</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="14" t="s">
         <v>22</v>
       </c>
@@ -1493,10 +1493,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="10">
@@ -1514,8 +1514,8 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="10">
         <v>62</v>
       </c>
@@ -1531,8 +1531,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="10">
         <v>65</v>
       </c>
@@ -1548,8 +1548,8 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="10">
         <v>66</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="10">
         <v>69</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="14" t="s">
         <v>22</v>
       </c>
@@ -1617,10 +1617,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="10">
@@ -1638,8 +1638,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="10">
         <v>74</v>
       </c>
@@ -1655,8 +1655,8 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="10">
         <v>79</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="14" t="s">
         <v>22</v>
       </c>
@@ -1707,10 +1707,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C57" s="10">
@@ -1727,9 +1727,9 @@
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="10">
         <v>86</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="14" t="s">
         <v>22</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -1801,7 +1801,7 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="14" t="s">
         <v>22</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>42</v>
       </c>
       <c r="I64" s="5"/>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1927,19 +1927,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A21:A27"/>
@@ -1956,10 +1943,23 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="72" max="16383" man="1"/>
   </rowBreaks>

--- a/dtj/dtj-report/tml/ПО-4.xlsx
+++ b/dtj/dtj-report/tml/ПО-4.xlsx
@@ -641,18 +641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="5" max="9" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1927,6 +1927,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A21:A27"/>
@@ -1943,19 +1956,6 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dtj/dtj-report/tml/ПО-4.xlsx
+++ b/dtj/dtj-report/tml/ПО-4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\dtj\dtj-report\tml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dtj\server\report\tml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -641,18 +641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
     <col min="5" max="9" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1727,7 +1727,7 @@
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="10">
@@ -1927,19 +1927,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A21:A27"/>
@@ -1956,9 +1943,22 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="72" max="16383" man="1"/>
